--- a/Team-Data/2008-09/3-9-2008-09.xlsx
+++ b/Team-Data/2008-09/3-9-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,22 +733,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E2" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" t="n">
         <v>28</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.556</v>
       </c>
       <c r="H2" t="n">
         <v>48.1</v>
       </c>
       <c r="I2" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="J2" t="n">
         <v>78.7</v>
@@ -690,37 +757,37 @@
         <v>0.457</v>
       </c>
       <c r="L2" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="M2" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0.363</v>
+        <v>0.362</v>
       </c>
       <c r="O2" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="P2" t="n">
         <v>25.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.735</v>
+        <v>0.736</v>
       </c>
       <c r="R2" t="n">
         <v>10.6</v>
       </c>
       <c r="S2" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="T2" t="n">
-        <v>40</v>
+        <v>39.9</v>
       </c>
       <c r="U2" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="V2" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="W2" t="n">
         <v>7.4</v>
@@ -732,19 +799,19 @@
         <v>4.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.5</v>
+        <v>19.7</v>
       </c>
       <c r="AA2" t="n">
         <v>20.7</v>
       </c>
       <c r="AB2" t="n">
-        <v>98</v>
+        <v>98.2</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -762,10 +829,10 @@
         <v>22</v>
       </c>
       <c r="AJ2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL2" t="n">
         <v>9</v>
@@ -774,7 +841,7 @@
         <v>7</v>
       </c>
       <c r="AN2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO2" t="n">
         <v>18</v>
@@ -786,28 +853,28 @@
         <v>29</v>
       </c>
       <c r="AR2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT2" t="n">
         <v>23</v>
       </c>
       <c r="AU2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV2" t="n">
         <v>6</v>
       </c>
       <c r="AW2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY2" t="n">
         <v>11</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>10</v>
       </c>
       <c r="AZ2" t="n">
         <v>5</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-9-2008-09</t>
+          <t>2009-03-09</t>
         </is>
       </c>
     </row>
@@ -848,88 +915,88 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E3" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F3" t="n">
         <v>15</v>
       </c>
       <c r="G3" t="n">
-        <v>0.762</v>
+        <v>0.766</v>
       </c>
       <c r="H3" t="n">
         <v>48.4</v>
       </c>
       <c r="I3" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J3" t="n">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="K3" t="n">
         <v>0.487</v>
       </c>
       <c r="L3" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M3" t="n">
         <v>16.5</v>
       </c>
       <c r="N3" t="n">
-        <v>0.393</v>
+        <v>0.39</v>
       </c>
       <c r="O3" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="P3" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.774</v>
+        <v>0.771</v>
       </c>
       <c r="R3" t="n">
         <v>10.6</v>
       </c>
       <c r="S3" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T3" t="n">
-        <v>42.5</v>
+        <v>42.4</v>
       </c>
       <c r="U3" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="V3" t="n">
         <v>15.8</v>
       </c>
       <c r="W3" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X3" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y3" t="n">
         <v>4.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.6</v>
+        <v>101.4</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AE3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF3" t="n">
         <v>3</v>
@@ -938,7 +1005,7 @@
         <v>3</v>
       </c>
       <c r="AH3" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AI3" t="n">
         <v>9</v>
@@ -956,22 +1023,22 @@
         <v>21</v>
       </c>
       <c r="AN3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AO3" t="n">
         <v>9</v>
       </c>
       <c r="AP3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR3" t="n">
         <v>20</v>
       </c>
       <c r="AS3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT3" t="n">
         <v>8</v>
@@ -986,7 +1053,7 @@
         <v>7</v>
       </c>
       <c r="AX3" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AY3" t="n">
         <v>12</v>
@@ -995,7 +1062,7 @@
         <v>27</v>
       </c>
       <c r="BA3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB3" t="n">
         <v>9</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-9-2008-09</t>
+          <t>2009-03-09</t>
         </is>
       </c>
     </row>
@@ -1108,19 +1175,19 @@
         <v>-1.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF4" t="n">
         <v>18</v>
       </c>
-      <c r="AF4" t="n">
-        <v>17</v>
-      </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI4" t="n">
         <v>30</v>
@@ -1162,10 +1229,10 @@
         <v>12</v>
       </c>
       <c r="AV4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX4" t="n">
         <v>14</v>
@@ -1177,13 +1244,13 @@
         <v>20</v>
       </c>
       <c r="BA4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB4" t="n">
         <v>30</v>
       </c>
       <c r="BC4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-9-2008-09</t>
+          <t>2009-03-09</t>
         </is>
       </c>
     </row>
@@ -1215,82 +1282,82 @@
         <v>63</v>
       </c>
       <c r="E5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" t="n">
-        <v>0.444</v>
+        <v>0.46</v>
       </c>
       <c r="H5" t="n">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
       <c r="I5" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J5" t="n">
-        <v>83.59999999999999</v>
+        <v>83.2</v>
       </c>
       <c r="K5" t="n">
-        <v>0.451</v>
+        <v>0.452</v>
       </c>
       <c r="L5" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="M5" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="N5" t="n">
-        <v>0.381</v>
+        <v>0.377</v>
       </c>
       <c r="O5" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="P5" t="n">
-        <v>25</v>
+        <v>25.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.792</v>
+        <v>0.79</v>
       </c>
       <c r="R5" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="S5" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="T5" t="n">
-        <v>42.7</v>
+        <v>42.6</v>
       </c>
       <c r="U5" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="V5" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W5" t="n">
         <v>7.5</v>
       </c>
       <c r="X5" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AB5" t="n">
-        <v>101.2</v>
+        <v>100.9</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1.3</v>
+        <v>-1.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
         <v>18</v>
@@ -1299,19 +1366,19 @@
         <v>17</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI5" t="n">
         <v>8</v>
       </c>
       <c r="AJ5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="n">
         <v>24</v>
@@ -1320,10 +1387,10 @@
         <v>24</v>
       </c>
       <c r="AN5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP5" t="n">
         <v>14</v>
@@ -1332,7 +1399,7 @@
         <v>8</v>
       </c>
       <c r="AR5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS5" t="n">
         <v>12</v>
@@ -1341,10 +1408,10 @@
         <v>7</v>
       </c>
       <c r="AU5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AW5" t="n">
         <v>9</v>
@@ -1353,19 +1420,19 @@
         <v>4</v>
       </c>
       <c r="AY5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ5" t="n">
         <v>19</v>
       </c>
       <c r="BA5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-9-2008-09</t>
+          <t>2009-03-09</t>
         </is>
       </c>
     </row>
@@ -1394,49 +1461,49 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E6" t="n">
         <v>49</v>
       </c>
       <c r="F6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="n">
-        <v>0.803</v>
+        <v>0.79</v>
       </c>
       <c r="H6" t="n">
         <v>48.1</v>
       </c>
       <c r="I6" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="J6" t="n">
-        <v>78</v>
+        <v>77.8</v>
       </c>
       <c r="K6" t="n">
         <v>0.47</v>
       </c>
       <c r="L6" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="M6" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="N6" t="n">
-        <v>0.395</v>
+        <v>0.393</v>
       </c>
       <c r="O6" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="P6" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="Q6" t="n">
         <v>0.754</v>
       </c>
       <c r="R6" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="S6" t="n">
         <v>30.9</v>
@@ -1448,46 +1515,46 @@
         <v>20</v>
       </c>
       <c r="V6" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="W6" t="n">
         <v>7.6</v>
       </c>
       <c r="X6" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>100.1</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AD6" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AE6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH6" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AI6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ6" t="n">
         <v>26</v>
@@ -1514,7 +1581,7 @@
         <v>23</v>
       </c>
       <c r="AR6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS6" t="n">
         <v>10</v>
@@ -1526,7 +1593,7 @@
         <v>25</v>
       </c>
       <c r="AV6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW6" t="n">
         <v>8</v>
@@ -1535,7 +1602,7 @@
         <v>6</v>
       </c>
       <c r="AY6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ6" t="n">
         <v>6</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-9-2008-09</t>
+          <t>2009-03-09</t>
         </is>
       </c>
     </row>
@@ -1654,19 +1721,19 @@
         <v>1.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
         <v>11</v>
       </c>
       <c r="AF7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG7" t="n">
         <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI7" t="n">
         <v>7</v>
@@ -1717,7 +1784,7 @@
         <v>7</v>
       </c>
       <c r="AY7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ7" t="n">
         <v>3</v>
@@ -1726,7 +1793,7 @@
         <v>24</v>
       </c>
       <c r="BB7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC7" t="n">
         <v>11</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-9-2008-09</t>
+          <t>2009-03-09</t>
         </is>
       </c>
     </row>
@@ -1758,46 +1825,46 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E8" t="n">
         <v>40</v>
       </c>
       <c r="F8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G8" t="n">
-        <v>0.615</v>
+        <v>0.625</v>
       </c>
       <c r="H8" t="n">
         <v>48.2</v>
       </c>
       <c r="I8" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="J8" t="n">
-        <v>78.7</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>0.465</v>
+        <v>0.467</v>
       </c>
       <c r="L8" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="M8" t="n">
         <v>17.6</v>
       </c>
       <c r="N8" t="n">
-        <v>0.362</v>
+        <v>0.361</v>
       </c>
       <c r="O8" t="n">
         <v>23</v>
       </c>
       <c r="P8" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.756</v>
+        <v>0.754</v>
       </c>
       <c r="R8" t="n">
         <v>10.9</v>
@@ -1806,10 +1873,10 @@
         <v>30.4</v>
       </c>
       <c r="T8" t="n">
-        <v>41.3</v>
+        <v>41.2</v>
       </c>
       <c r="U8" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="V8" t="n">
         <v>15.6</v>
@@ -1830,13 +1897,13 @@
         <v>23.8</v>
       </c>
       <c r="AB8" t="n">
-        <v>102.6</v>
+        <v>102.7</v>
       </c>
       <c r="AC8" t="n">
         <v>2.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="n">
         <v>7</v>
@@ -1851,13 +1918,13 @@
         <v>25</v>
       </c>
       <c r="AI8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL8" t="n">
         <v>19</v>
@@ -1866,7 +1933,7 @@
         <v>18</v>
       </c>
       <c r="AN8" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1881,7 +1948,7 @@
         <v>16</v>
       </c>
       <c r="AS8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT8" t="n">
         <v>15</v>
@@ -1890,7 +1957,7 @@
         <v>8</v>
       </c>
       <c r="AV8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW8" t="n">
         <v>3</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-9-2008-09</t>
+          <t>2009-03-09</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E9" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" t="n">
         <v>30</v>
       </c>
       <c r="G9" t="n">
-        <v>0.516</v>
+        <v>0.508</v>
       </c>
       <c r="H9" t="n">
         <v>48.3</v>
@@ -1958,16 +2025,16 @@
         <v>35.9</v>
       </c>
       <c r="J9" t="n">
-        <v>79.2</v>
+        <v>79</v>
       </c>
       <c r="K9" t="n">
-        <v>0.453</v>
+        <v>0.454</v>
       </c>
       <c r="L9" t="n">
         <v>4.6</v>
       </c>
       <c r="M9" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="N9" t="n">
         <v>0.343</v>
@@ -1979,28 +2046,28 @@
         <v>22.8</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.749</v>
+        <v>0.752</v>
       </c>
       <c r="R9" t="n">
         <v>11</v>
       </c>
       <c r="S9" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="T9" t="n">
         <v>40.7</v>
       </c>
       <c r="U9" t="n">
-        <v>20.4</v>
+        <v>20.2</v>
       </c>
       <c r="V9" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="W9" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="X9" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y9" t="n">
         <v>4</v>
@@ -2012,13 +2079,13 @@
         <v>19.9</v>
       </c>
       <c r="AB9" t="n">
-        <v>93.5</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
@@ -2030,13 +2097,13 @@
         <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK9" t="n">
         <v>18</v>
@@ -2051,16 +2118,16 @@
         <v>26</v>
       </c>
       <c r="AO9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ9" t="n">
         <v>25</v>
       </c>
       <c r="AR9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS9" t="n">
         <v>17</v>
@@ -2078,7 +2145,7 @@
         <v>28</v>
       </c>
       <c r="AX9" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AY9" t="n">
         <v>5</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-9-2008-09</t>
+          <t>2009-03-09</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-3.7</v>
       </c>
       <c r="AD10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
@@ -2221,7 +2288,7 @@
         <v>3</v>
       </c>
       <c r="AK10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL10" t="n">
         <v>15</v>
@@ -2239,7 +2306,7 @@
         <v>2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-9-2008-09</t>
+          <t>2009-03-09</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F11" t="n">
         <v>23</v>
       </c>
       <c r="G11" t="n">
-        <v>0.646</v>
+        <v>0.641</v>
       </c>
       <c r="H11" t="n">
         <v>48.2</v>
@@ -2325,34 +2392,34 @@
         <v>79.59999999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L11" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="M11" t="n">
         <v>20.5</v>
       </c>
       <c r="N11" t="n">
-        <v>0.378</v>
+        <v>0.377</v>
       </c>
       <c r="O11" t="n">
         <v>19.5</v>
       </c>
       <c r="P11" t="n">
-        <v>24.3</v>
+        <v>24.1</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.805</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R11" t="n">
         <v>10.5</v>
       </c>
       <c r="S11" t="n">
-        <v>32.5</v>
+        <v>32.4</v>
       </c>
       <c r="T11" t="n">
-        <v>43</v>
+        <v>42.9</v>
       </c>
       <c r="U11" t="n">
         <v>20.5</v>
@@ -2370,22 +2437,22 @@
         <v>5.4</v>
       </c>
       <c r="Z11" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="AA11" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AB11" t="n">
-        <v>98.8</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC11" t="n">
         <v>3.9</v>
       </c>
       <c r="AD11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF11" t="n">
         <v>7</v>
@@ -2394,7 +2461,7 @@
         <v>6</v>
       </c>
       <c r="AH11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI11" t="n">
         <v>26</v>
@@ -2403,7 +2470,7 @@
         <v>20</v>
       </c>
       <c r="AK11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL11" t="n">
         <v>7</v>
@@ -2412,7 +2479,7 @@
         <v>5</v>
       </c>
       <c r="AN11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO11" t="n">
         <v>12</v>
@@ -2421,7 +2488,7 @@
         <v>19</v>
       </c>
       <c r="AQ11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AR11" t="n">
         <v>23</v>
@@ -2436,7 +2503,7 @@
         <v>16</v>
       </c>
       <c r="AV11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW11" t="n">
         <v>25</v>
@@ -2454,10 +2521,10 @@
         <v>14</v>
       </c>
       <c r="BB11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-9-2008-09</t>
+          <t>2009-03-09</t>
         </is>
       </c>
     </row>
@@ -2564,10 +2631,10 @@
         <v>-1.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF12" t="n">
         <v>21</v>
@@ -2585,7 +2652,7 @@
         <v>2</v>
       </c>
       <c r="AK12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL12" t="n">
         <v>4</v>
@@ -2618,7 +2685,7 @@
         <v>5</v>
       </c>
       <c r="AV12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW12" t="n">
         <v>19</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-9-2008-09</t>
+          <t>2009-03-09</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-8.699999999999999</v>
       </c>
       <c r="AD13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE13" t="n">
         <v>28</v>
@@ -2758,7 +2825,7 @@
         <v>28</v>
       </c>
       <c r="AH13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI13" t="n">
         <v>25</v>
@@ -2779,10 +2846,10 @@
         <v>23</v>
       </c>
       <c r="AO13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ13" t="n">
         <v>27</v>
@@ -2791,13 +2858,13 @@
         <v>12</v>
       </c>
       <c r="AS13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT13" t="n">
         <v>21</v>
       </c>
       <c r="AU13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV13" t="n">
         <v>19</v>
@@ -2809,10 +2876,10 @@
         <v>2</v>
       </c>
       <c r="AY13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA13" t="n">
         <v>26</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-9-2008-09</t>
+          <t>2009-03-09</t>
         </is>
       </c>
     </row>
@@ -2853,13 +2920,13 @@
         <v>62</v>
       </c>
       <c r="E14" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14" t="n">
-        <v>0.79</v>
+        <v>0.806</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
@@ -2877,28 +2944,28 @@
         <v>6.9</v>
       </c>
       <c r="M14" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="N14" t="n">
-        <v>0.362</v>
+        <v>0.365</v>
       </c>
       <c r="O14" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="P14" t="n">
         <v>26.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.771</v>
+        <v>0.77</v>
       </c>
       <c r="R14" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="S14" t="n">
-        <v>31.6</v>
+        <v>31.9</v>
       </c>
       <c r="T14" t="n">
-        <v>44.3</v>
+        <v>44.5</v>
       </c>
       <c r="U14" t="n">
         <v>23.7</v>
@@ -2910,34 +2977,34 @@
         <v>8.5</v>
       </c>
       <c r="X14" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y14" t="n">
         <v>4.7</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="AB14" t="n">
         <v>108.7</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AD14" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AE14" t="n">
         <v>1</v>
       </c>
       <c r="AF14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH14" t="n">
         <v>15</v>
@@ -2952,13 +3019,13 @@
         <v>4</v>
       </c>
       <c r="AL14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN14" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AO14" t="n">
         <v>5</v>
@@ -2973,7 +3040,7 @@
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -2994,10 +3061,10 @@
         <v>13</v>
       </c>
       <c r="AZ14" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-9-2008-09</t>
+          <t>2009-03-09</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-6</v>
       </c>
       <c r="AD15" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3152,7 +3219,7 @@
         <v>24</v>
       </c>
       <c r="AR15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS15" t="n">
         <v>28</v>
@@ -3173,10 +3240,10 @@
         <v>21</v>
       </c>
       <c r="AY15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA15" t="n">
         <v>9</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-9-2008-09</t>
+          <t>2009-03-09</t>
         </is>
       </c>
     </row>
@@ -3214,61 +3281,61 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E16" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F16" t="n">
         <v>29</v>
       </c>
       <c r="G16" t="n">
-        <v>0.54</v>
+        <v>0.532</v>
       </c>
       <c r="H16" t="n">
-        <v>48.4</v>
+        <v>48.2</v>
       </c>
       <c r="I16" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J16" t="n">
-        <v>81.2</v>
+        <v>81</v>
       </c>
       <c r="K16" t="n">
         <v>0.455</v>
       </c>
       <c r="L16" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M16" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="N16" t="n">
-        <v>0.354</v>
+        <v>0.352</v>
       </c>
       <c r="O16" t="n">
-        <v>17.1</v>
+        <v>16.9</v>
       </c>
       <c r="P16" t="n">
-        <v>22.5</v>
+        <v>22.3</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.761</v>
+        <v>0.758</v>
       </c>
       <c r="R16" t="n">
         <v>10.2</v>
       </c>
       <c r="S16" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="T16" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="U16" t="n">
         <v>20.1</v>
       </c>
       <c r="V16" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="W16" t="n">
         <v>8.1</v>
@@ -3280,31 +3347,31 @@
         <v>4</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>98</v>
+        <v>97.5</v>
       </c>
       <c r="AC16" t="n">
         <v>-0.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="AE16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF16" t="n">
         <v>13</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AI16" t="n">
         <v>11</v>
@@ -3319,16 +3386,16 @@
         <v>11</v>
       </c>
       <c r="AM16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AN16" t="n">
         <v>22</v>
       </c>
       <c r="AO16" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AP16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ16" t="n">
         <v>20</v>
@@ -3337,7 +3404,7 @@
         <v>24</v>
       </c>
       <c r="AS16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT16" t="n">
         <v>29</v>
@@ -3346,10 +3413,10 @@
         <v>23</v>
       </c>
       <c r="AV16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX16" t="n">
         <v>5</v>
@@ -3358,13 +3425,13 @@
         <v>4</v>
       </c>
       <c r="AZ16" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BA16" t="n">
         <v>28</v>
       </c>
       <c r="BB16" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BC16" t="n">
         <v>15</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-9-2008-09</t>
+          <t>2009-03-09</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E17" t="n">
         <v>30</v>
       </c>
       <c r="F17" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G17" t="n">
-        <v>0.462</v>
+        <v>0.455</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
@@ -3414,7 +3481,7 @@
         <v>36.7</v>
       </c>
       <c r="J17" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K17" t="n">
         <v>0.448</v>
@@ -3426,13 +3493,13 @@
         <v>16.6</v>
       </c>
       <c r="N17" t="n">
-        <v>0.362</v>
+        <v>0.363</v>
       </c>
       <c r="O17" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="P17" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="Q17" t="n">
         <v>0.783</v>
@@ -3441,10 +3508,10 @@
         <v>12.2</v>
       </c>
       <c r="S17" t="n">
-        <v>29.1</v>
+        <v>28.9</v>
       </c>
       <c r="T17" t="n">
-        <v>41.2</v>
+        <v>41.1</v>
       </c>
       <c r="U17" t="n">
         <v>21.6</v>
@@ -3453,7 +3520,7 @@
         <v>14.2</v>
       </c>
       <c r="W17" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X17" t="n">
         <v>3.8</v>
@@ -3462,16 +3529,16 @@
         <v>4.8</v>
       </c>
       <c r="Z17" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="AA17" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="AB17" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.2</v>
+        <v>-0.4</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -3480,16 +3547,16 @@
         <v>16</v>
       </c>
       <c r="AF17" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ17" t="n">
         <v>9</v>
@@ -3504,22 +3571,22 @@
         <v>20</v>
       </c>
       <c r="AN17" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AO17" t="n">
         <v>7</v>
       </c>
       <c r="AP17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS17" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AT17" t="n">
         <v>17</v>
@@ -3528,7 +3595,7 @@
         <v>9</v>
       </c>
       <c r="AV17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW17" t="n">
         <v>13</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-9-2008-09</t>
+          <t>2009-03-09</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E18" t="n">
         <v>18</v>
       </c>
       <c r="F18" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G18" t="n">
-        <v>0.286</v>
+        <v>0.29</v>
       </c>
       <c r="H18" t="n">
         <v>48.4</v>
@@ -3596,7 +3663,7 @@
         <v>36.8</v>
       </c>
       <c r="J18" t="n">
-        <v>83.59999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="K18" t="n">
         <v>0.44</v>
@@ -3605,10 +3672,10 @@
         <v>6.2</v>
       </c>
       <c r="M18" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="N18" t="n">
-        <v>0.341</v>
+        <v>0.342</v>
       </c>
       <c r="O18" t="n">
         <v>19</v>
@@ -3635,28 +3702,28 @@
         <v>14.4</v>
       </c>
       <c r="W18" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="X18" t="n">
         <v>4.1</v>
       </c>
       <c r="Y18" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="Z18" t="n">
         <v>22.1</v>
       </c>
       <c r="AA18" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB18" t="n">
         <v>98.8</v>
       </c>
       <c r="AC18" t="n">
-        <v>-5</v>
+        <v>-4.9</v>
       </c>
       <c r="AD18" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="AE18" t="n">
         <v>25</v>
@@ -3668,13 +3735,13 @@
         <v>25</v>
       </c>
       <c r="AH18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI18" t="n">
         <v>12</v>
       </c>
       <c r="AJ18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK18" t="n">
         <v>29</v>
@@ -3695,7 +3762,7 @@
         <v>16</v>
       </c>
       <c r="AQ18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR18" t="n">
         <v>5</v>
@@ -3707,7 +3774,7 @@
         <v>11</v>
       </c>
       <c r="AU18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV18" t="n">
         <v>16</v>
@@ -3722,13 +3789,13 @@
         <v>30</v>
       </c>
       <c r="AZ18" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA18" t="n">
         <v>22</v>
       </c>
-      <c r="BA18" t="n">
-        <v>23</v>
-      </c>
       <c r="BB18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC18" t="n">
         <v>25</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-9-2008-09</t>
+          <t>2009-03-09</t>
         </is>
       </c>
     </row>
@@ -3838,16 +3905,16 @@
         <v>-2.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF19" t="n">
         <v>18</v>
       </c>
-      <c r="AF19" t="n">
-        <v>17</v>
-      </c>
       <c r="AG19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH19" t="n">
         <v>7</v>
@@ -3880,10 +3947,10 @@
         <v>9</v>
       </c>
       <c r="AR19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT19" t="n">
         <v>22</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-9-2008-09</t>
+          <t>2009-03-09</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E20" t="n">
         <v>39</v>
       </c>
       <c r="F20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G20" t="n">
-        <v>0.629</v>
+        <v>0.639</v>
       </c>
       <c r="H20" t="n">
         <v>48.1</v>
@@ -3963,25 +4030,25 @@
         <v>77</v>
       </c>
       <c r="K20" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
       <c r="L20" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="M20" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="N20" t="n">
-        <v>0.377</v>
+        <v>0.379</v>
       </c>
       <c r="O20" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="P20" t="n">
-        <v>22.9</v>
+        <v>23.1</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.805</v>
       </c>
       <c r="R20" t="n">
         <v>9.699999999999999</v>
@@ -4008,31 +4075,31 @@
         <v>3.6</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AB20" t="n">
-        <v>96.2</v>
+        <v>96.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AD20" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AE20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG20" t="n">
         <v>7</v>
       </c>
-      <c r="AG20" t="n">
-        <v>9</v>
-      </c>
       <c r="AH20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI20" t="n">
         <v>28</v>
@@ -4041,25 +4108,25 @@
         <v>28</v>
       </c>
       <c r="AK20" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AL20" t="n">
         <v>8</v>
       </c>
       <c r="AM20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AN20" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AO20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP20" t="n">
         <v>22</v>
       </c>
-      <c r="AP20" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AR20" t="n">
         <v>28</v>
@@ -4068,13 +4135,13 @@
         <v>16</v>
       </c>
       <c r="AT20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU20" t="n">
         <v>26</v>
       </c>
       <c r="AV20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW20" t="n">
         <v>15</v>
@@ -4086,13 +4153,13 @@
         <v>1</v>
       </c>
       <c r="AZ20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA20" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BB20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC20" t="n">
         <v>9</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-9-2008-09</t>
+          <t>2009-03-09</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AE21" t="n">
         <v>22</v>
@@ -4214,7 +4281,7 @@
         <v>22</v>
       </c>
       <c r="AH21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI21" t="n">
         <v>5</v>
@@ -4268,7 +4335,7 @@
         <v>23</v>
       </c>
       <c r="AZ21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-9-2008-09</t>
+          <t>2009-03-09</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>-5.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE22" t="n">
         <v>26</v>
@@ -4396,16 +4463,16 @@
         <v>26</v>
       </c>
       <c r="AH22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ22" t="n">
         <v>10</v>
       </c>
       <c r="AK22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL22" t="n">
         <v>29</v>
@@ -4435,7 +4502,7 @@
         <v>3</v>
       </c>
       <c r="AU22" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV22" t="n">
         <v>30</v>
@@ -4450,13 +4517,13 @@
         <v>18</v>
       </c>
       <c r="AZ22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA22" t="n">
         <v>19</v>
       </c>
       <c r="BB22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC22" t="n">
         <v>26</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-9-2008-09</t>
+          <t>2009-03-09</t>
         </is>
       </c>
     </row>
@@ -4488,25 +4555,25 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E23" t="n">
         <v>46</v>
       </c>
       <c r="F23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G23" t="n">
-        <v>0.73</v>
+        <v>0.742</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>35.8</v>
+        <v>36</v>
       </c>
       <c r="J23" t="n">
-        <v>78</v>
+        <v>78.2</v>
       </c>
       <c r="K23" t="n">
         <v>0.46</v>
@@ -4515,28 +4582,28 @@
         <v>10.3</v>
       </c>
       <c r="M23" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="N23" t="n">
         <v>0.391</v>
       </c>
       <c r="O23" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="P23" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.727</v>
+        <v>0.725</v>
       </c>
       <c r="R23" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="S23" t="n">
         <v>33</v>
       </c>
       <c r="T23" t="n">
-        <v>42.8</v>
+        <v>42.9</v>
       </c>
       <c r="U23" t="n">
         <v>19.2</v>
@@ -4560,13 +4627,13 @@
         <v>22.6</v>
       </c>
       <c r="AB23" t="n">
-        <v>102</v>
+        <v>102.1</v>
       </c>
       <c r="AC23" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AD23" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="AE23" t="n">
         <v>4</v>
@@ -4581,7 +4648,7 @@
         <v>23</v>
       </c>
       <c r="AI23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ23" t="n">
         <v>25</v>
@@ -4596,10 +4663,10 @@
         <v>2</v>
       </c>
       <c r="AN23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP23" t="n">
         <v>4</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-9-2008-09</t>
+          <t>2009-03-09</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>0.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE24" t="n">
         <v>16</v>
@@ -4805,7 +4872,7 @@
         <v>18</v>
       </c>
       <c r="AW24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX24" t="n">
         <v>10</v>
@@ -4820,7 +4887,7 @@
         <v>10</v>
       </c>
       <c r="BB24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC24" t="n">
         <v>14</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-9-2008-09</t>
+          <t>2009-03-09</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>1.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
@@ -4942,7 +5009,7 @@
         <v>13</v>
       </c>
       <c r="AH25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI25" t="n">
         <v>2</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-9-2008-09</t>
+          <t>2009-03-09</t>
         </is>
       </c>
     </row>
@@ -5037,25 +5104,25 @@
         <v>62</v>
       </c>
       <c r="E26" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G26" t="n">
-        <v>0.645</v>
+        <v>0.629</v>
       </c>
       <c r="H26" t="n">
         <v>48.3</v>
       </c>
       <c r="I26" t="n">
-        <v>36.8</v>
+        <v>36.6</v>
       </c>
       <c r="J26" t="n">
         <v>79.2</v>
       </c>
       <c r="K26" t="n">
-        <v>0.465</v>
+        <v>0.462</v>
       </c>
       <c r="L26" t="n">
         <v>7.2</v>
@@ -5067,13 +5134,13 @@
         <v>0.379</v>
       </c>
       <c r="O26" t="n">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
       <c r="P26" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.763</v>
+        <v>0.762</v>
       </c>
       <c r="R26" t="n">
         <v>13</v>
@@ -5085,7 +5152,7 @@
         <v>41.2</v>
       </c>
       <c r="U26" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="V26" t="n">
         <v>12.8</v>
@@ -5097,40 +5164,40 @@
         <v>4.7</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Z26" t="n">
         <v>20.7</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.5</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AE26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF26" t="n">
         <v>7</v>
       </c>
-      <c r="AF26" t="n">
-        <v>6</v>
-      </c>
       <c r="AG26" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AH26" t="n">
         <v>15</v>
       </c>
       <c r="AI26" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AJ26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK26" t="n">
         <v>8</v>
@@ -5139,19 +5206,19 @@
         <v>10</v>
       </c>
       <c r="AM26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN26" t="n">
         <v>7</v>
       </c>
       <c r="AO26" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AP26" t="n">
         <v>18</v>
       </c>
       <c r="AQ26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR26" t="n">
         <v>1</v>
@@ -5163,7 +5230,7 @@
         <v>16</v>
       </c>
       <c r="AU26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV26" t="n">
         <v>5</v>
@@ -5172,22 +5239,22 @@
         <v>26</v>
       </c>
       <c r="AX26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY26" t="n">
         <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA26" t="n">
         <v>13</v>
       </c>
       <c r="BB26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC26" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-9-2008-09</t>
+          <t>2009-03-09</t>
         </is>
       </c>
     </row>
@@ -5294,19 +5361,19 @@
         <v>-8.9</v>
       </c>
       <c r="AD27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF27" t="n">
         <v>29</v>
       </c>
       <c r="AG27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AH27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI27" t="n">
         <v>21</v>
@@ -5315,7 +5382,7 @@
         <v>13</v>
       </c>
       <c r="AK27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL27" t="n">
         <v>13</v>
@@ -5324,7 +5391,7 @@
         <v>14</v>
       </c>
       <c r="AN27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO27" t="n">
         <v>4</v>
@@ -5339,7 +5406,7 @@
         <v>27</v>
       </c>
       <c r="AS27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT27" t="n">
         <v>30</v>
@@ -5354,7 +5421,7 @@
         <v>22</v>
       </c>
       <c r="AX27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY27" t="n">
         <v>20</v>
@@ -5366,7 +5433,7 @@
         <v>11</v>
       </c>
       <c r="BB27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC27" t="n">
         <v>30</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-9-2008-09</t>
+          <t>2009-03-09</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>4</v>
       </c>
       <c r="AD28" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AE28" t="n">
         <v>5</v>
@@ -5488,7 +5555,7 @@
         <v>5</v>
       </c>
       <c r="AH28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI28" t="n">
         <v>10</v>
@@ -5497,7 +5564,7 @@
         <v>18</v>
       </c>
       <c r="AK28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL28" t="n">
         <v>5</v>
@@ -5506,7 +5573,7 @@
         <v>8</v>
       </c>
       <c r="AN28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO28" t="n">
         <v>30</v>
@@ -5548,10 +5615,10 @@
         <v>30</v>
       </c>
       <c r="BB28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-9-2008-09</t>
+          <t>2009-03-09</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-3.7</v>
       </c>
       <c r="AD29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE29" t="n">
         <v>23</v>
@@ -5679,7 +5746,7 @@
         <v>19</v>
       </c>
       <c r="AK29" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AL29" t="n">
         <v>23</v>
@@ -5691,10 +5758,10 @@
         <v>13</v>
       </c>
       <c r="AO29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ29" t="n">
         <v>1</v>
@@ -5703,7 +5770,7 @@
         <v>29</v>
       </c>
       <c r="AS29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT29" t="n">
         <v>27</v>
@@ -5712,7 +5779,7 @@
         <v>7</v>
       </c>
       <c r="AV29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW29" t="n">
         <v>29</v>
@@ -5721,16 +5788,16 @@
         <v>13</v>
       </c>
       <c r="AY29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ29" t="n">
         <v>4</v>
       </c>
       <c r="BA29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC29" t="n">
         <v>24</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-9-2008-09</t>
+          <t>2009-03-09</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>4</v>
       </c>
       <c r="AD30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE30" t="n">
         <v>7</v>
@@ -5852,7 +5919,7 @@
         <v>8</v>
       </c>
       <c r="AH30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI30" t="n">
         <v>6</v>
@@ -5879,7 +5946,7 @@
         <v>3</v>
       </c>
       <c r="AQ30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR30" t="n">
         <v>9</v>
@@ -5915,7 +5982,7 @@
         <v>6</v>
       </c>
       <c r="BC30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-9-2008-09</t>
+          <t>2009-03-09</t>
         </is>
       </c>
     </row>
@@ -5944,88 +6011,88 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F31" t="n">
         <v>49</v>
       </c>
       <c r="G31" t="n">
-        <v>0.234</v>
+        <v>0.222</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
       </c>
       <c r="I31" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="J31" t="n">
-        <v>80.8</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>0.447</v>
+        <v>0.446</v>
       </c>
       <c r="L31" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="M31" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="N31" t="n">
-        <v>0.324</v>
+        <v>0.325</v>
       </c>
       <c r="O31" t="n">
-        <v>17.5</v>
+        <v>17.3</v>
       </c>
       <c r="P31" t="n">
-        <v>22.9</v>
+        <v>22.7</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.762</v>
+        <v>0.763</v>
       </c>
       <c r="R31" t="n">
         <v>11.7</v>
       </c>
       <c r="S31" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="T31" t="n">
-        <v>39.7</v>
+        <v>39.6</v>
       </c>
       <c r="U31" t="n">
         <v>20.1</v>
       </c>
       <c r="V31" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W31" t="n">
         <v>7.4</v>
       </c>
       <c r="X31" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y31" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z31" t="n">
         <v>20.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AB31" t="n">
-        <v>94.7</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>-7.5</v>
+        <v>-7.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AE31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF31" t="n">
         <v>29</v>
@@ -6043,7 +6110,7 @@
         <v>12</v>
       </c>
       <c r="AK31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL31" t="n">
         <v>25</v>
@@ -6058,10 +6125,10 @@
         <v>26</v>
       </c>
       <c r="AP31" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AQ31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR31" t="n">
         <v>8</v>
@@ -6070,7 +6137,7 @@
         <v>30</v>
       </c>
       <c r="AT31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU31" t="n">
         <v>24</v>
@@ -6079,7 +6146,7 @@
         <v>12</v>
       </c>
       <c r="AW31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX31" t="n">
         <v>25</v>
@@ -6088,7 +6155,7 @@
         <v>21</v>
       </c>
       <c r="AZ31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA31" t="n">
         <v>27</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-9-2008-09</t>
+          <t>2009-03-09</t>
         </is>
       </c>
     </row>
